--- a/biology/Médecine/Syndrome_cordonal_postérieur/Syndrome_cordonal_postérieur.xlsx
+++ b/biology/Médecine/Syndrome_cordonal_postérieur/Syndrome_cordonal_postérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_cordonal_post%C3%A9rieur</t>
+          <t>Syndrome_cordonal_postérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome cordonal postérieur correspond à une atteinte des cordons postérieurs de la moelle épinière[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome cordonal postérieur correspond à une atteinte des cordons postérieurs de la moelle épinière.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_cordonal_post%C3%A9rieur</t>
+          <t>Syndrome_cordonal_postérieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description[2],[3]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome cordonal postérieur associe :
 Atteinte de la sensibilité proprioceptive avec :
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_cordonal_post%C3%A9rieur</t>
+          <t>Syndrome_cordonal_postérieur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,14 +567,16 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Compression médullaire postérieure
 Arrêt de vascularisation par l'artère spinale postérieure
 Sclérose combinée de la moelle par carence en vitamine B12 (Syndrome neuro-anémique)
 Tabes dorsalis (syphilis tertiaire)
 Sclérose en plaques
-Carence en cuivre[4]</t>
+Carence en cuivre</t>
         </is>
       </c>
     </row>
